--- a/excel/result_excel(2021-Dec-12-Sunday).xlsx
+++ b/excel/result_excel(2021-Dec-12-Sunday).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,28 +421,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>0.9810140132904053</v>
-      </c>
-      <c r="C1" t="n">
-        <v>267</v>
-      </c>
-      <c r="D1" t="n">
-        <v>410</v>
-      </c>
-      <c r="E1" t="n">
-        <v>343</v>
-      </c>
-      <c r="F1" t="n">
-        <v>460</v>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -450,85 +428,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9733057618141174</v>
+        <v>0.9810131788253784</v>
       </c>
       <c r="C2" t="n">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D2" t="n">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="E2" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F2" t="n">
-        <v>372</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>boat</t>
+          <t>person</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8883689045906067</v>
+        <v>0.9733068943023682</v>
       </c>
       <c r="C3" t="n">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D3" t="n">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="E3" t="n">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="F3" t="n">
-        <v>352</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8773040771484375</v>
+        <v>0.8883748054504395</v>
       </c>
       <c r="C4" t="n">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="D4" t="n">
-        <v>473</v>
+        <v>297</v>
       </c>
       <c r="E4" t="n">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="F4" t="n">
-        <v>488</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>boat</t>
+          <t>person</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8572409749031067</v>
+        <v>0.8773108124732971</v>
       </c>
       <c r="C5" t="n">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="D5" t="n">
-        <v>198</v>
+        <v>473</v>
       </c>
       <c r="E5" t="n">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="F5" t="n">
-        <v>240</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6">
@@ -538,41 +516,41 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7792800664901733</v>
+        <v>0.8572606444358826</v>
       </c>
       <c r="C6" t="n">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="D6" t="n">
-        <v>439</v>
+        <v>198</v>
       </c>
       <c r="E6" t="n">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="F6" t="n">
-        <v>517</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7529977560043335</v>
+        <v>0.779280424118042</v>
       </c>
       <c r="C7" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D7" t="n">
-        <v>317</v>
+        <v>439</v>
       </c>
       <c r="E7" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F7" t="n">
-        <v>337</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8">
@@ -582,41 +560,41 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7201886773109436</v>
+        <v>0.7530012130737305</v>
       </c>
       <c r="C8" t="n">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D8" t="n">
-        <v>455</v>
+        <v>317</v>
       </c>
       <c r="E8" t="n">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="F8" t="n">
-        <v>466</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>boat</t>
+          <t>person</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6271839141845703</v>
+        <v>0.7201957702636719</v>
       </c>
       <c r="C9" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="E9" t="n">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="F9" t="n">
-        <v>120</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10">
@@ -626,41 +604,41 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6035366654396057</v>
+        <v>0.6272213459014893</v>
       </c>
       <c r="C10" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D10" t="n">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="E10" t="n">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="F10" t="n">
-        <v>366</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5631519556045532</v>
+        <v>0.6035417318344116</v>
       </c>
       <c r="C11" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D11" t="n">
-        <v>206</v>
+        <v>341</v>
       </c>
       <c r="E11" t="n">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F11" t="n">
-        <v>224</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12">
@@ -670,63 +648,63 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4919292628765106</v>
+        <v>0.5631565451622009</v>
       </c>
       <c r="C12" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D12" t="n">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="E12" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F12" t="n">
-        <v>104</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>boat</t>
+          <t>person</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4706091582775116</v>
+        <v>0.4919467866420746</v>
       </c>
       <c r="C13" t="n">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="D13" t="n">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="E13" t="n">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="F13" t="n">
-        <v>315</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4526531398296356</v>
+        <v>0.4706120193004608</v>
       </c>
       <c r="C14" t="n">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="D14" t="n">
-        <v>84</v>
+        <v>282</v>
       </c>
       <c r="E14" t="n">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="F14" t="n">
-        <v>116</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15">
@@ -736,18 +714,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.418268233537674</v>
+        <v>0.4526273310184479</v>
       </c>
       <c r="C15" t="n">
+        <v>201</v>
+      </c>
+      <c r="D15" t="n">
+        <v>84</v>
+      </c>
+      <c r="E15" t="n">
+        <v>220</v>
+      </c>
+      <c r="F15" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4182670414447784</v>
+      </c>
+      <c r="C16" t="n">
         <v>184</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>353</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E16" t="n">
         <v>196</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F16" t="n">
         <v>367</v>
       </c>
     </row>
